--- a/docassemble/MAEvictionDefense/data/sources/eviction_ht.xlsx
+++ b/docassemble/MAEvictionDefense/data/sources/eviction_ht.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSteenhuis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSteenhuis\Google Drive\eviction-interview\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="2247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5167" uniqueCount="2247">
   <si>
     <t>interview</t>
   </si>
@@ -26367,9 +26367,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H739"/>
+  <dimension ref="A1:H738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
       <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
@@ -44893,18 +44893,18 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>572</v>
+        <v>1374</v>
       </c>
       <c r="C713" s="2">
-        <v>3005</v>
+        <v>2008</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>588</v>
+        <v>2178</v>
       </c>
       <c r="E713" s="2" t="s">
         <v>11</v>
@@ -44913,76 +44913,76 @@
         <v>12</v>
       </c>
       <c r="G713" s="3" t="s">
-        <v>589</v>
+        <v>2179</v>
       </c>
       <c r="H713" s="4" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="714" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1374</v>
+        <v>1600</v>
       </c>
       <c r="C714" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E714" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F714" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="H714" s="4" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C715" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E715" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F715" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H715" s="4" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A716" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C716" s="2">
         <v>2008</v>
       </c>
-      <c r="D714" s="2" t="s">
-        <v>2178</v>
-      </c>
-      <c r="E714" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F714" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G714" s="3" t="s">
-        <v>2179</v>
-      </c>
-      <c r="H714" s="4" t="s">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A715" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B715" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C715" s="2">
-        <v>2007</v>
-      </c>
-      <c r="D715" s="2" t="s">
-        <v>2181</v>
-      </c>
-      <c r="E715" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F715" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G715" s="3" t="s">
-        <v>2182</v>
-      </c>
-      <c r="H715" s="4" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="716" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A716" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B716" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C716" s="2">
-        <v>3003</v>
-      </c>
       <c r="D716" s="2" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
       <c r="E716" s="2" t="s">
         <v>11</v>
@@ -44991,10 +44991,10 @@
         <v>12</v>
       </c>
       <c r="G716" s="3" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="H716" s="4" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.25">
@@ -45002,13 +45002,13 @@
         <v>297</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1050</v>
+        <v>1374</v>
       </c>
       <c r="C717" s="2">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
       <c r="E717" s="2" t="s">
         <v>11</v>
@@ -45017,10 +45017,10 @@
         <v>12</v>
       </c>
       <c r="G717" s="3" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="H717" s="4" t="s">
-        <v>2188</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
@@ -45028,13 +45028,13 @@
         <v>297</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1374</v>
+        <v>1050</v>
       </c>
       <c r="C718" s="2">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="E718" s="2" t="s">
         <v>11</v>
@@ -45043,10 +45043,10 @@
         <v>12</v>
       </c>
       <c r="G718" s="3" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="H718" s="4" t="s">
-        <v>1412</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
@@ -45054,13 +45054,13 @@
         <v>297</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1050</v>
+        <v>1374</v>
       </c>
       <c r="C719" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="E719" s="2" t="s">
         <v>11</v>
@@ -45069,10 +45069,10 @@
         <v>12</v>
       </c>
       <c r="G719" s="3" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="H719" s="4" t="s">
-        <v>2193</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
@@ -45080,13 +45080,13 @@
         <v>297</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1374</v>
+        <v>1139</v>
       </c>
       <c r="C720" s="2">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="E720" s="2" t="s">
         <v>11</v>
@@ -45095,10 +45095,10 @@
         <v>12</v>
       </c>
       <c r="G720" s="3" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="H720" s="4" t="s">
-        <v>1391</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
@@ -45106,13 +45106,13 @@
         <v>297</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1139</v>
+        <v>1209</v>
       </c>
       <c r="C721" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="E721" s="2" t="s">
         <v>11</v>
@@ -45121,10 +45121,10 @@
         <v>12</v>
       </c>
       <c r="G721" s="3" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="H721" s="4" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
@@ -45132,13 +45132,13 @@
         <v>297</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1209</v>
+        <v>1139</v>
       </c>
       <c r="C722" s="2">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="E722" s="2" t="s">
         <v>11</v>
@@ -45147,10 +45147,10 @@
         <v>12</v>
       </c>
       <c r="G722" s="3" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="H722" s="4" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
@@ -45158,13 +45158,13 @@
         <v>297</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1139</v>
+        <v>1374</v>
       </c>
       <c r="C723" s="2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="E723" s="2" t="s">
         <v>11</v>
@@ -45173,10 +45173,10 @@
         <v>12</v>
       </c>
       <c r="G723" s="3" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="H723" s="4" t="s">
-        <v>2204</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
@@ -45184,39 +45184,39 @@
         <v>297</v>
       </c>
       <c r="B724" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C724" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D724" s="2" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E724" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F724" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="H724" s="4" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A725" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B725" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="C724" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D724" s="2" t="s">
-        <v>2205</v>
-      </c>
-      <c r="E724" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F724" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G724" s="3" t="s">
-        <v>2206</v>
-      </c>
-      <c r="H724" s="4" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A725" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B725" s="2" t="s">
-        <v>1139</v>
-      </c>
       <c r="C725" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>11</v>
@@ -45225,10 +45225,10 @@
         <v>12</v>
       </c>
       <c r="G725" s="3" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="H725" s="4" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="726" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -45239,10 +45239,10 @@
         <v>1374</v>
       </c>
       <c r="C726" s="2">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="E726" s="2" t="s">
         <v>11</v>
@@ -45251,24 +45251,24 @@
         <v>12</v>
       </c>
       <c r="G726" s="3" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="H726" s="4" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="727" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1374</v>
+        <v>667</v>
       </c>
       <c r="C727" s="2">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="E727" s="2" t="s">
         <v>11</v>
@@ -45277,10 +45277,10 @@
         <v>12</v>
       </c>
       <c r="G727" s="3" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="H727" s="4" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
@@ -45288,13 +45288,13 @@
         <v>297</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>667</v>
+        <v>1600</v>
       </c>
       <c r="C728" s="2">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="E728" s="2" t="s">
         <v>11</v>
@@ -45303,10 +45303,10 @@
         <v>12</v>
       </c>
       <c r="G728" s="3" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="H728" s="4" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
@@ -45314,13 +45314,13 @@
         <v>297</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1600</v>
+        <v>1050</v>
       </c>
       <c r="C729" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="E729" s="2" t="s">
         <v>11</v>
@@ -45329,10 +45329,10 @@
         <v>12</v>
       </c>
       <c r="G729" s="3" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="H729" s="4" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
@@ -45340,13 +45340,13 @@
         <v>297</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1050</v>
+        <v>1374</v>
       </c>
       <c r="C730" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="E730" s="2" t="s">
         <v>11</v>
@@ -45355,13 +45355,13 @@
         <v>12</v>
       </c>
       <c r="G730" s="3" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="H730" s="4" t="s">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
         <v>297</v>
       </c>
@@ -45369,10 +45369,10 @@
         <v>1374</v>
       </c>
       <c r="C731" s="2">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="E731" s="2" t="s">
         <v>11</v>
@@ -45381,10 +45381,10 @@
         <v>12</v>
       </c>
       <c r="G731" s="3" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="H731" s="4" t="s">
-        <v>1424</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="732" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -45392,39 +45392,39 @@
         <v>297</v>
       </c>
       <c r="B732" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C732" s="2">
+        <v>2003</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E732" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F732" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="H732" s="4" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A733" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B733" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="C732" s="2">
-        <v>2007</v>
-      </c>
-      <c r="D732" s="2" t="s">
-        <v>2227</v>
-      </c>
-      <c r="E732" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F732" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G732" s="3" t="s">
-        <v>2228</v>
-      </c>
-      <c r="H732" s="4" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="733" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A733" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B733" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="C733" s="2">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="E733" s="2" t="s">
         <v>11</v>
@@ -45433,10 +45433,10 @@
         <v>12</v>
       </c>
       <c r="G733" s="3" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="H733" s="4" t="s">
-        <v>2232</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
@@ -45444,13 +45444,13 @@
         <v>297</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1374</v>
+        <v>1187</v>
       </c>
       <c r="C734" s="2">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="E734" s="2" t="s">
         <v>11</v>
@@ -45459,24 +45459,24 @@
         <v>12</v>
       </c>
       <c r="G734" s="3" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="H734" s="4" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1187</v>
+        <v>1139</v>
       </c>
       <c r="C735" s="2">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>11</v>
@@ -45485,13 +45485,13 @@
         <v>12</v>
       </c>
       <c r="G735" s="3" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="H735" s="4" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="736" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
         <v>297</v>
       </c>
@@ -45499,10 +45499,10 @@
         <v>1139</v>
       </c>
       <c r="C736" s="2">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="E736" s="2" t="s">
         <v>11</v>
@@ -45511,10 +45511,10 @@
         <v>12</v>
       </c>
       <c r="G736" s="3" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="H736" s="4" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.25">
@@ -45522,13 +45522,13 @@
         <v>297</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1139</v>
+        <v>1374</v>
       </c>
       <c r="C737" s="2">
         <v>2013</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="E737" s="2" t="s">
         <v>11</v>
@@ -45537,10 +45537,10 @@
         <v>12</v>
       </c>
       <c r="G737" s="3" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="H737" s="4" t="s">
-        <v>2242</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.25">
@@ -45551,10 +45551,10 @@
         <v>1374</v>
       </c>
       <c r="C738" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="E738" s="2" t="s">
         <v>11</v>
@@ -45563,40 +45563,14 @@
         <v>12</v>
       </c>
       <c r="G738" s="3" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="H738" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A739" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B739" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C739" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D739" s="2" t="s">
-        <v>2245</v>
-      </c>
-      <c r="E739" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F739" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G739" s="3" t="s">
-        <v>2246</v>
-      </c>
-      <c r="H739" s="4" t="s">
         <v>1403</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>